--- a/2015-2016学年秋季学期“百团大战”学生社团协会联合招新信息统计表.xlsx
+++ b/2015-2016学年秋季学期“百团大战”学生社团协会联合招新信息统计表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>参与时间段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t>非要让兔兔们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法国恢复到黄飞鸿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -770,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -915,6 +919,11 @@
     <row r="16" spans="1:11">
       <c r="F16" s="2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
